--- a/layot.xlsx
+++ b/layot.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Will\Documents\projects\pacman\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ED0646FC-3EA8-47D0-89EE-12192BD0BD7C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BFBEE945-9C85-43E0-B9F6-2828A9EF4511}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{ED2BD072-95E3-455B-BB25-DED85FEC6008}"/>
+    <workbookView xWindow="525" yWindow="1845" windowWidth="21600" windowHeight="10995" xr2:uid="{ED2BD072-95E3-455B-BB25-DED85FEC6008}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -75,12 +75,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FF0070C0"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFF0000"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -100,6 +94,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF00B050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF7030A0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -124,19 +124,19 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -453,94 +453,94 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{900F6A09-5785-4CE6-9DE4-99D4B0913FAA}">
   <dimension ref="V37:BT55"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="T46" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="AH56" sqref="AH56"/>
+    <sheetView tabSelected="1" topLeftCell="T35" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="AH40" sqref="AH1:AH1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.5703125" defaultRowHeight="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="37" spans="22:72" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="V37" s="6"/>
-      <c r="W37" s="6"/>
-      <c r="X37" s="6"/>
-      <c r="Y37" s="6"/>
-      <c r="Z37" s="6"/>
-      <c r="AA37" s="6"/>
-      <c r="AB37" s="6"/>
-      <c r="AC37" s="4"/>
-      <c r="AD37" s="4"/>
-      <c r="AE37" s="4"/>
-      <c r="AF37" s="4"/>
-      <c r="AG37" s="4"/>
-      <c r="AH37" s="4"/>
-      <c r="AI37" s="4"/>
-      <c r="AJ37" s="4"/>
-      <c r="AK37" s="4"/>
-      <c r="AL37" s="4"/>
-      <c r="AM37" s="6"/>
-      <c r="AN37" s="6"/>
-      <c r="AO37" s="6"/>
-      <c r="AP37" s="6"/>
-      <c r="AQ37" s="6"/>
-      <c r="AR37" s="6"/>
-      <c r="AS37" s="6"/>
+      <c r="V37" s="11"/>
+      <c r="W37" s="11"/>
+      <c r="X37" s="11"/>
+      <c r="Y37" s="11"/>
+      <c r="Z37" s="11"/>
+      <c r="AA37" s="11"/>
+      <c r="AB37" s="11"/>
+      <c r="AC37" s="11"/>
+      <c r="AD37" s="11"/>
+      <c r="AE37" s="11"/>
+      <c r="AF37" s="11"/>
+      <c r="AG37" s="11"/>
+      <c r="AH37" s="11"/>
+      <c r="AI37" s="11"/>
+      <c r="AJ37" s="11"/>
+      <c r="AK37" s="11"/>
+      <c r="AL37" s="11"/>
+      <c r="AM37" s="11"/>
+      <c r="AN37" s="11"/>
+      <c r="AO37" s="11"/>
+      <c r="AP37" s="11"/>
+      <c r="AQ37" s="11"/>
+      <c r="AR37" s="11"/>
+      <c r="AS37" s="11"/>
     </row>
     <row r="38" spans="22:72" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="V38" s="6"/>
-      <c r="W38" s="7"/>
-      <c r="AA38" s="6"/>
-      <c r="AN38" s="6"/>
-      <c r="AS38" s="6"/>
+      <c r="V38" s="11"/>
+      <c r="W38" s="6"/>
+      <c r="AA38" s="11"/>
+      <c r="AN38" s="5"/>
+      <c r="AS38" s="11"/>
     </row>
     <row r="39" spans="22:72" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="V39" s="6"/>
-      <c r="X39" s="6"/>
-      <c r="Y39" s="6"/>
-      <c r="AA39" s="6"/>
-      <c r="AC39" s="4"/>
-      <c r="AD39" s="4"/>
-      <c r="AE39" s="4"/>
-      <c r="AF39" s="4"/>
-      <c r="AG39" s="4"/>
-      <c r="AH39" s="4"/>
-      <c r="AI39" s="4"/>
-      <c r="AJ39" s="4"/>
-      <c r="AK39" s="4"/>
-      <c r="AL39" s="4"/>
-      <c r="AN39" s="6"/>
-      <c r="AP39" s="6"/>
-      <c r="AQ39" s="6"/>
-      <c r="AS39" s="6"/>
+      <c r="V39" s="11"/>
+      <c r="X39" s="11"/>
+      <c r="Y39" s="11"/>
+      <c r="AA39" s="11"/>
+      <c r="AC39" s="11"/>
+      <c r="AD39" s="11"/>
+      <c r="AE39" s="11"/>
+      <c r="AF39" s="11"/>
+      <c r="AG39" s="11"/>
+      <c r="AH39" s="11"/>
+      <c r="AI39" s="11"/>
+      <c r="AJ39" s="11"/>
+      <c r="AK39" s="11"/>
+      <c r="AL39" s="11"/>
+      <c r="AN39" s="5"/>
+      <c r="AP39" s="5"/>
+      <c r="AQ39" s="5"/>
+      <c r="AS39" s="11"/>
     </row>
     <row r="40" spans="22:72" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="V40" s="6"/>
-      <c r="X40" s="6"/>
-      <c r="AQ40" s="6"/>
-      <c r="AS40" s="6"/>
+      <c r="V40" s="11"/>
+      <c r="X40" s="11"/>
+      <c r="AQ40" s="5"/>
+      <c r="AS40" s="11"/>
     </row>
     <row r="41" spans="22:72" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="V41" s="6"/>
-      <c r="X41" s="6"/>
-      <c r="Z41" s="6"/>
-      <c r="AA41" s="6"/>
-      <c r="AC41" s="4"/>
-      <c r="AD41" s="4"/>
-      <c r="AK41" s="4"/>
-      <c r="AL41" s="4"/>
-      <c r="AN41" s="6"/>
-      <c r="AO41" s="6"/>
-      <c r="AQ41" s="6"/>
-      <c r="AS41" s="6"/>
+      <c r="V41" s="11"/>
+      <c r="X41" s="11"/>
+      <c r="Z41" s="5"/>
+      <c r="AA41" s="5"/>
+      <c r="AC41" s="11"/>
+      <c r="AD41" s="11"/>
+      <c r="AK41" s="11"/>
+      <c r="AL41" s="11"/>
+      <c r="AN41" s="5"/>
+      <c r="AO41" s="5"/>
+      <c r="AQ41" s="5"/>
+      <c r="AS41" s="11"/>
     </row>
     <row r="42" spans="22:72" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="V42" s="6"/>
-      <c r="AC42" s="4"/>
-      <c r="AD42" s="5"/>
-      <c r="AE42" s="5"/>
-      <c r="AF42" s="5"/>
-      <c r="AG42" s="5"/>
-      <c r="AL42" s="4"/>
-      <c r="AS42" s="6"/>
+      <c r="V42" s="11"/>
+      <c r="AC42" s="11"/>
+      <c r="AD42" s="4"/>
+      <c r="AE42" s="4"/>
+      <c r="AF42" s="4"/>
+      <c r="AG42" s="4"/>
+      <c r="AL42" s="11"/>
+      <c r="AS42" s="11"/>
       <c r="BM42" s="2"/>
       <c r="BN42" s="2"/>
       <c r="BO42" s="2"/>
@@ -551,26 +551,26 @@
       <c r="BT42" s="2"/>
     </row>
     <row r="43" spans="22:72" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="V43" s="6"/>
-      <c r="X43" s="6"/>
+      <c r="V43" s="11"/>
+      <c r="X43" s="11"/>
       <c r="Y43" s="3"/>
-      <c r="Z43" s="6"/>
-      <c r="AA43" s="6"/>
-      <c r="AC43" s="4"/>
-      <c r="AD43" s="4"/>
-      <c r="AE43" s="4"/>
-      <c r="AF43" s="4"/>
-      <c r="AG43" s="4"/>
-      <c r="AH43" s="4"/>
-      <c r="AI43" s="4"/>
-      <c r="AJ43" s="4"/>
-      <c r="AK43" s="4"/>
-      <c r="AL43" s="4"/>
-      <c r="AN43" s="6"/>
-      <c r="AO43" s="6"/>
+      <c r="Z43" s="11"/>
+      <c r="AA43" s="11"/>
+      <c r="AC43" s="11"/>
+      <c r="AD43" s="11"/>
+      <c r="AE43" s="11"/>
+      <c r="AF43" s="11"/>
+      <c r="AG43" s="11"/>
+      <c r="AH43" s="11"/>
+      <c r="AI43" s="11"/>
+      <c r="AJ43" s="11"/>
+      <c r="AK43" s="11"/>
+      <c r="AL43" s="11"/>
+      <c r="AN43" s="5"/>
+      <c r="AO43" s="5"/>
       <c r="AP43" s="3"/>
-      <c r="AQ43" s="6"/>
-      <c r="AS43" s="6"/>
+      <c r="AQ43" s="5"/>
+      <c r="AS43" s="11"/>
       <c r="BM43" s="2"/>
       <c r="BN43" s="2"/>
       <c r="BO43" s="2"/>
@@ -581,17 +581,17 @@
       <c r="BT43" s="2"/>
     </row>
     <row r="44" spans="22:72" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="V44" s="6"/>
-      <c r="X44" s="6"/>
+      <c r="V44" s="11"/>
+      <c r="X44" s="11"/>
       <c r="Y44" s="3"/>
-      <c r="Z44" s="6"/>
-      <c r="AA44" s="6"/>
+      <c r="Z44" s="11"/>
+      <c r="AA44" s="11"/>
       <c r="AH44" s="1"/>
-      <c r="AN44" s="6"/>
-      <c r="AO44" s="6"/>
+      <c r="AN44" s="5"/>
+      <c r="AO44" s="5"/>
       <c r="AP44" s="3"/>
-      <c r="AQ44" s="6"/>
-      <c r="AS44" s="6"/>
+      <c r="AQ44" s="5"/>
+      <c r="AS44" s="11"/>
       <c r="BM44" s="2"/>
       <c r="BN44" s="2"/>
       <c r="BO44" s="2"/>
@@ -602,16 +602,16 @@
       <c r="BT44" s="2"/>
     </row>
     <row r="45" spans="22:72" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="V45" s="6"/>
-      <c r="AC45" s="4"/>
-      <c r="AE45" s="4"/>
-      <c r="AF45" s="4"/>
-      <c r="AG45" s="4"/>
-      <c r="AH45" s="4"/>
-      <c r="AI45" s="4"/>
-      <c r="AJ45" s="4"/>
-      <c r="AL45" s="4"/>
-      <c r="AS45" s="6"/>
+      <c r="V45" s="11"/>
+      <c r="AC45" s="11"/>
+      <c r="AE45" s="11"/>
+      <c r="AF45" s="11"/>
+      <c r="AG45" s="11"/>
+      <c r="AH45" s="11"/>
+      <c r="AI45" s="11"/>
+      <c r="AJ45" s="11"/>
+      <c r="AL45" s="11"/>
+      <c r="AS45" s="11"/>
       <c r="BM45" s="2"/>
       <c r="BN45" s="2"/>
       <c r="BO45" s="2"/>
@@ -622,16 +622,16 @@
       <c r="BT45" s="2"/>
     </row>
     <row r="46" spans="22:72" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="V46" s="6"/>
-      <c r="X46" s="6"/>
-      <c r="Z46" s="6"/>
-      <c r="AA46" s="6"/>
-      <c r="AC46" s="4"/>
-      <c r="AL46" s="4"/>
-      <c r="AN46" s="6"/>
-      <c r="AO46" s="6"/>
-      <c r="AQ46" s="6"/>
-      <c r="AS46" s="6"/>
+      <c r="V46" s="11"/>
+      <c r="X46" s="5"/>
+      <c r="Z46" s="5"/>
+      <c r="AA46" s="5"/>
+      <c r="AC46" s="11"/>
+      <c r="AL46" s="11"/>
+      <c r="AN46" s="5"/>
+      <c r="AO46" s="5"/>
+      <c r="AQ46" s="5"/>
+      <c r="AS46" s="11"/>
       <c r="BM46" s="2"/>
       <c r="BN46" s="2"/>
       <c r="BO46" s="2"/>
@@ -642,41 +642,41 @@
       <c r="BT46" s="2"/>
     </row>
     <row r="47" spans="22:72" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="V47" s="6"/>
-      <c r="X47" s="6"/>
-      <c r="AC47" s="4"/>
-      <c r="AD47" s="4"/>
-      <c r="AE47" s="4"/>
-      <c r="AF47" s="4"/>
-      <c r="AG47" s="4"/>
-      <c r="AH47" s="4"/>
-      <c r="AI47" s="4"/>
-      <c r="AJ47" s="4"/>
-      <c r="AK47" s="4"/>
-      <c r="AL47" s="4"/>
-      <c r="AQ47" s="6"/>
-      <c r="AS47" s="6"/>
+      <c r="V47" s="11"/>
+      <c r="X47" s="5"/>
+      <c r="AC47" s="11"/>
+      <c r="AD47" s="11"/>
+      <c r="AE47" s="11"/>
+      <c r="AF47" s="11"/>
+      <c r="AG47" s="11"/>
+      <c r="AH47" s="11"/>
+      <c r="AI47" s="11"/>
+      <c r="AJ47" s="11"/>
+      <c r="AK47" s="11"/>
+      <c r="AL47" s="11"/>
+      <c r="AQ47" s="5"/>
+      <c r="AS47" s="11"/>
       <c r="BP47" s="3"/>
       <c r="BQ47" s="3"/>
     </row>
     <row r="48" spans="22:72" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="V48" s="6"/>
-      <c r="X48" s="6"/>
-      <c r="Y48" s="6"/>
-      <c r="AA48" s="6"/>
-      <c r="AN48" s="6"/>
-      <c r="AP48" s="6"/>
-      <c r="AQ48" s="6"/>
-      <c r="AS48" s="6"/>
+      <c r="V48" s="11"/>
+      <c r="X48" s="5"/>
+      <c r="Y48" s="5"/>
+      <c r="AA48" s="5"/>
+      <c r="AN48" s="5"/>
+      <c r="AP48" s="5"/>
+      <c r="AQ48" s="5"/>
+      <c r="AS48" s="11"/>
       <c r="BP48" s="3"/>
       <c r="BQ48" s="3"/>
     </row>
     <row r="49" spans="22:72" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="V49" s="6"/>
-      <c r="AA49" s="6"/>
-      <c r="AN49" s="6"/>
-      <c r="AR49" s="7"/>
-      <c r="AS49" s="6"/>
+      <c r="V49" s="11"/>
+      <c r="AA49" s="5"/>
+      <c r="AN49" s="5"/>
+      <c r="AR49" s="6"/>
+      <c r="AS49" s="11"/>
       <c r="BM49" s="2"/>
       <c r="BN49" s="2"/>
       <c r="BO49" s="2"/>
@@ -687,30 +687,30 @@
       <c r="BT49" s="2"/>
     </row>
     <row r="50" spans="22:72" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="V50" s="6"/>
-      <c r="W50" s="6"/>
-      <c r="X50" s="6"/>
-      <c r="Y50" s="6"/>
-      <c r="Z50" s="6"/>
-      <c r="AA50" s="6"/>
-      <c r="AB50" s="6"/>
-      <c r="AC50" s="6"/>
-      <c r="AD50" s="6"/>
-      <c r="AE50" s="6"/>
-      <c r="AF50" s="6"/>
-      <c r="AG50" s="6"/>
-      <c r="AH50" s="6"/>
-      <c r="AI50" s="6"/>
-      <c r="AJ50" s="6"/>
-      <c r="AK50" s="6"/>
-      <c r="AL50" s="6"/>
-      <c r="AM50" s="6"/>
-      <c r="AN50" s="6"/>
-      <c r="AO50" s="6"/>
-      <c r="AP50" s="6"/>
-      <c r="AQ50" s="6"/>
-      <c r="AR50" s="6"/>
-      <c r="AS50" s="6"/>
+      <c r="V50" s="11"/>
+      <c r="W50" s="11"/>
+      <c r="X50" s="11"/>
+      <c r="Y50" s="11"/>
+      <c r="Z50" s="11"/>
+      <c r="AA50" s="11"/>
+      <c r="AB50" s="11"/>
+      <c r="AC50" s="11"/>
+      <c r="AD50" s="11"/>
+      <c r="AE50" s="11"/>
+      <c r="AF50" s="11"/>
+      <c r="AG50" s="11"/>
+      <c r="AH50" s="11"/>
+      <c r="AI50" s="11"/>
+      <c r="AJ50" s="11"/>
+      <c r="AK50" s="11"/>
+      <c r="AL50" s="11"/>
+      <c r="AM50" s="11"/>
+      <c r="AN50" s="11"/>
+      <c r="AO50" s="11"/>
+      <c r="AP50" s="11"/>
+      <c r="AQ50" s="11"/>
+      <c r="AR50" s="11"/>
+      <c r="AS50" s="11"/>
       <c r="BM50" s="2"/>
       <c r="BN50" s="2"/>
       <c r="BO50" s="2"/>
@@ -725,52 +725,52 @@
       <c r="BQ51" s="2"/>
     </row>
     <row r="52" spans="22:72" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="V52" s="8" t="s">
+      <c r="V52" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="W52" s="8"/>
-      <c r="X52" s="8"/>
-      <c r="Y52" s="8"/>
-      <c r="Z52" s="8"/>
-      <c r="AA52" s="8"/>
-      <c r="AB52" s="8"/>
+      <c r="W52" s="7"/>
+      <c r="X52" s="7"/>
+      <c r="Y52" s="7"/>
+      <c r="Z52" s="7"/>
+      <c r="AA52" s="7"/>
+      <c r="AB52" s="7"/>
       <c r="BP52" s="2"/>
       <c r="BQ52" s="2"/>
     </row>
     <row r="53" spans="22:72" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="V53" s="9" t="s">
+      <c r="V53" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="W53" s="9"/>
-      <c r="X53" s="9"/>
-      <c r="Y53" s="9"/>
-      <c r="Z53" s="9"/>
-      <c r="AA53" s="9"/>
-      <c r="AB53" s="9"/>
+      <c r="W53" s="8"/>
+      <c r="X53" s="8"/>
+      <c r="Y53" s="8"/>
+      <c r="Z53" s="8"/>
+      <c r="AA53" s="8"/>
+      <c r="AB53" s="8"/>
       <c r="BP53" s="2"/>
       <c r="BQ53" s="2"/>
     </row>
     <row r="54" spans="22:72" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="V54" s="10" t="s">
+      <c r="V54" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="W54" s="10"/>
-      <c r="X54" s="10"/>
-      <c r="Y54" s="10"/>
-      <c r="Z54" s="10"/>
-      <c r="AA54" s="10"/>
-      <c r="AB54" s="10"/>
+      <c r="W54" s="9"/>
+      <c r="X54" s="9"/>
+      <c r="Y54" s="9"/>
+      <c r="Z54" s="9"/>
+      <c r="AA54" s="9"/>
+      <c r="AB54" s="9"/>
     </row>
     <row r="55" spans="22:72" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="V55" s="11" t="s">
+      <c r="V55" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="W55" s="11"/>
-      <c r="X55" s="11"/>
-      <c r="Y55" s="11"/>
-      <c r="Z55" s="11"/>
-      <c r="AA55" s="11"/>
-      <c r="AB55" s="11"/>
+      <c r="W55" s="10"/>
+      <c r="X55" s="10"/>
+      <c r="Y55" s="10"/>
+      <c r="Z55" s="10"/>
+      <c r="AA55" s="10"/>
+      <c r="AB55" s="10"/>
     </row>
   </sheetData>
   <mergeCells count="4">
